--- a/Codelists/Reviewed_codelists/wp2_cancer_codelists.xlsx
+++ b/Codelists/Reviewed_codelists/wp2_cancer_codelists.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/psyc0981_ox_ac_uk/Documents/Documents/GitHub/CodelistGenerator_cancers/Codelists/Reviewed_codelists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="543" documentId="8_{5F917C81-8A33-4367-A934-BCD975B9C26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{642EB9C8-CEE0-4920-AB79-131DEC74F2B5}"/>
+  <xr:revisionPtr revIDLastSave="544" documentId="8_{5F917C81-8A33-4367-A934-BCD975B9C26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03C28BCC-84F8-427E-9431-47B4BD013681}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" firstSheet="13" activeTab="15" xr2:uid="{A52CD064-D63F-457F-88A7-8A996BB32102}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="14" xr2:uid="{A52CD064-D63F-457F-88A7-8A996BB32102}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -26044,13 +26044,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B7482C-C6AC-4924-ABBF-72F093D084E4}">
-  <sheetPr>
-    <tabColor theme="9"/>
-  </sheetPr>
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A57"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -27550,8 +27547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF081057-AE81-4D4B-95EE-D3A15B7C4CC7}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C28"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
